--- a/branches/HIVCareMedicationRequest--FIG--72/StructureDefinition-hiv-med-req.xlsx
+++ b/branches/HIVCareMedicationRequest--FIG--72/StructureDefinition-hiv-med-req.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T14:07:40+00:00</t>
+    <t>2023-03-02T09:16:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4330,7 +4330,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>89</v>

--- a/branches/HIVCareMedicationRequest--FIG--72/StructureDefinition-hiv-med-req.xlsx
+++ b/branches/HIVCareMedicationRequest--FIG--72/StructureDefinition-hiv-med-req.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T09:16:05+00:00</t>
+    <t>2023-03-02T11:49:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -737,7 +737,7 @@
     <t>medicationCodeableConcept</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/hiv-cbs/ValueSet/vs-hiv-art-medication</t>
+    <t>http://openhie.org/fhir/hiv-cbs/ValueSet/vs-arv-regimen</t>
   </si>
   <si>
     <t>MedicationRequest.subject</t>

--- a/branches/HIVCareMedicationRequest--FIG--72/StructureDefinition-hiv-med-req.xlsx
+++ b/branches/HIVCareMedicationRequest--FIG--72/StructureDefinition-hiv-med-req.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T11:49:40+00:00</t>
+    <t>2023-03-02T11:50:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
